--- a/data/paradox/2019-01-30-GWC-25.xlsx
+++ b/data/paradox/2019-01-30-GWC-25.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
-  <workbookPr showObjects="placeholders" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjessup/Library/Mobile Documents/com~apple~CloudDocs/CocStats/data/paradox/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31C4583-9D2B-A04C-A620-6F5B6A06E7B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr showObjects="placeholders" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="48320" yWindow="2480" windowWidth="21500" windowHeight="25540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34500" yWindow="0" windowWidth="17320" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="2019-01-30-GWC-25" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,11 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,9 +24,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -134,11 +128,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,14 +171,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -185,7 +199,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -569,7 +583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -621,7 +635,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -815,26 +829,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -871,17 +885,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>43491</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -899,7 +913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -917,7 +931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -935,7 +949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -953,7 +967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -971,7 +985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -989,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1007,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1025,7 +1039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1043,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1061,7 +1075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1079,7 +1093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1097,7 +1111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1115,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1133,7 +1147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1151,7 +1165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1169,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1187,7 +1201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1205,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1223,7 +1237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1241,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1259,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1295,7 +1309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1313,7 +1327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1331,7 +1345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1348,7 +1362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1365,7 +1379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1382,7 +1396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1399,7 +1413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1416,7 +1430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1433,7 +1447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
@@ -1450,7 +1464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1467,7 +1481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1484,7 +1498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1501,7 +1515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>11</v>
       </c>
@@ -1518,7 +1532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>12</v>
       </c>
@@ -1535,7 +1549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>13</v>
       </c>
@@ -1552,7 +1566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>14</v>
       </c>
@@ -1569,7 +1583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>15</v>
       </c>
@@ -1586,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>16</v>
       </c>
@@ -1603,7 +1617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>17</v>
       </c>
@@ -1620,7 +1634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>18</v>
       </c>
@@ -1637,7 +1651,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>19</v>
       </c>
@@ -1654,7 +1668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>20</v>
       </c>
@@ -1671,7 +1685,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>21</v>
       </c>
@@ -1688,7 +1702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>22</v>
       </c>
@@ -1705,7 +1719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>23</v>
       </c>
@@ -1722,7 +1736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>24</v>
       </c>
@@ -1739,7 +1753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>25</v>
       </c>
@@ -1756,7 +1770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>26</v>
       </c>
@@ -1773,7 +1787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>27</v>
       </c>
@@ -1790,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>28</v>
       </c>
@@ -1807,7 +1821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>29</v>
       </c>
@@ -1824,7 +1838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>30</v>
       </c>
@@ -1841,7 +1855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>31</v>
       </c>
@@ -1858,7 +1872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>32</v>
       </c>
@@ -1875,7 +1889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>33</v>
       </c>
@@ -1892,7 +1906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>34</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>35</v>
       </c>
@@ -1926,7 +1940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>36</v>
       </c>
@@ -1943,7 +1957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>37</v>
       </c>
@@ -1960,7 +1974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>38</v>
       </c>
@@ -1977,7 +1991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>39</v>
       </c>
@@ -1994,7 +2008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>40</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>41</v>
       </c>
@@ -2028,7 +2042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>42</v>
       </c>
@@ -2045,7 +2059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>43</v>
       </c>
@@ -2062,7 +2076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>44</v>
       </c>
@@ -2079,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>45</v>
       </c>
@@ -2096,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>46</v>
       </c>
@@ -2113,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>47</v>
       </c>
@@ -2130,7 +2144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>48</v>
       </c>
@@ -2147,7 +2161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>49</v>
       </c>
@@ -2164,7 +2178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>50</v>
       </c>
@@ -2181,7 +2195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>51</v>
       </c>
@@ -2198,7 +2212,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>52</v>
       </c>
@@ -2215,7 +2229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>53</v>
       </c>
@@ -2232,7 +2246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>54</v>
       </c>
@@ -2249,7 +2263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>55</v>
       </c>
@@ -2266,7 +2280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>56</v>
       </c>
@@ -2283,7 +2297,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>57</v>
       </c>
@@ -2300,7 +2314,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>58</v>
       </c>
@@ -2317,7 +2331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>59</v>
       </c>
@@ -2334,7 +2348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>60</v>
       </c>
@@ -2351,7 +2365,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>61</v>
       </c>
@@ -2368,7 +2382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>62</v>
       </c>
@@ -2385,7 +2399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>63</v>
       </c>
@@ -2402,7 +2416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>64</v>
       </c>
@@ -2419,7 +2433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>65</v>
       </c>
@@ -2436,7 +2450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>66</v>
       </c>
@@ -2453,7 +2467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>67</v>
       </c>
@@ -2470,7 +2484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>68</v>
       </c>
@@ -2487,7 +2501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>69</v>
       </c>
@@ -2504,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>70</v>
       </c>
@@ -2521,7 +2535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>71</v>
       </c>
@@ -2538,7 +2552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>72</v>
       </c>
@@ -2555,7 +2569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>73</v>
       </c>
@@ -2572,7 +2586,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>74</v>
       </c>
@@ -2589,7 +2603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>75</v>
       </c>
@@ -2606,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>76</v>
       </c>
@@ -2623,7 +2637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>77</v>
       </c>
@@ -2640,7 +2654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>78</v>
       </c>
@@ -2657,7 +2671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>79</v>
       </c>
@@ -2674,7 +2688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>80</v>
       </c>
@@ -2691,7 +2705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>81</v>
       </c>
@@ -2708,7 +2722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>82</v>
       </c>
@@ -2725,7 +2739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>83</v>
       </c>
@@ -2742,7 +2756,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>84</v>
       </c>
@@ -2759,7 +2773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>85</v>
       </c>
@@ -2776,7 +2790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>86</v>
       </c>
@@ -2793,7 +2807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>87</v>
       </c>
@@ -2810,7 +2824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>88</v>
       </c>
@@ -2827,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>89</v>
       </c>
@@ -2844,7 +2858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>90</v>
       </c>
@@ -2861,7 +2875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>91</v>
       </c>
@@ -2878,7 +2892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>92</v>
       </c>
@@ -2895,7 +2909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>93</v>
       </c>
@@ -2912,7 +2926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>94</v>
       </c>
@@ -2929,7 +2943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>95</v>
       </c>
@@ -2946,7 +2960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>96</v>
       </c>
@@ -2963,7 +2977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>97</v>
       </c>
@@ -2982,6 +2996,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
